--- a/Level fitting and Serotype distribution/serotype_distribution_2024.xlsx
+++ b/Level fitting and Serotype distribution/serotype_distribution_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,17 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Var1</t>
+          <t>SalmonellaSerotype</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Freq</t>
+          <t>serotype_counts</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Var1.1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Freq.1</t>
+          <t>serotype_proportion</t>
         </is>
       </c>
     </row>
@@ -388,12 +383,7 @@
       <c r="B2">
         <v>28</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Agona</t>
-        </is>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>0.1465968586387434</v>
       </c>
     </row>
@@ -406,12 +396,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Alachua</t>
-        </is>
-      </c>
-      <c r="D3">
+      <c r="C3">
         <v>0.01047120418848168</v>
       </c>
     </row>
@@ -424,12 +409,7 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Albany</t>
-        </is>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>0.02094240837696335</v>
       </c>
     </row>
@@ -442,12 +422,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Anatum</t>
-        </is>
-      </c>
-      <c r="D5">
+      <c r="C5">
         <v>0.005235602094240838</v>
       </c>
     </row>
@@ -460,12 +435,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="D6">
+      <c r="C6">
         <v>0.005235602094240838</v>
       </c>
     </row>
@@ -478,12 +448,7 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Brandenburg</t>
-        </is>
-      </c>
-      <c r="D7">
+      <c r="C7">
         <v>0.02617801047120419</v>
       </c>
     </row>
@@ -496,12 +461,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cubana</t>
-        </is>
-      </c>
-      <c r="D8">
+      <c r="C8">
         <v>0.005235602094240838</v>
       </c>
     </row>
@@ -514,12 +474,7 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Enteritidis</t>
-        </is>
-      </c>
-      <c r="D9">
+      <c r="C9">
         <v>0.02094240837696335</v>
       </c>
     </row>
@@ -532,12 +487,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Gateshead</t>
-        </is>
-      </c>
-      <c r="D10">
+      <c r="C10">
         <v>0.005235602094240838</v>
       </c>
     </row>
@@ -550,12 +500,7 @@
       <c r="B11">
         <v>42</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Hadar</t>
-        </is>
-      </c>
-      <c r="D11">
+      <c r="C11">
         <v>0.2198952879581152</v>
       </c>
     </row>
@@ -568,12 +513,7 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Heidelberg</t>
-        </is>
-      </c>
-      <c r="D12">
+      <c r="C12">
         <v>0.01047120418848168</v>
       </c>
     </row>
@@ -586,12 +526,7 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>I 4,[5],12:i:-</t>
-        </is>
-      </c>
-      <c r="D13">
+      <c r="C13">
         <v>0.03141361256544502</v>
       </c>
     </row>
@@ -604,12 +539,7 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>I4,[5],12:i-</t>
-        </is>
-      </c>
-      <c r="D14">
+      <c r="C14">
         <v>0.005235602094240838</v>
       </c>
     </row>
@@ -622,12 +552,7 @@
       <c r="B15">
         <v>16</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Infantis</t>
-        </is>
-      </c>
-      <c r="D15">
+      <c r="C15">
         <v>0.08376963350785341</v>
       </c>
     </row>
@@ -640,12 +565,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Johannesburg</t>
-        </is>
-      </c>
-      <c r="D16">
+      <c r="C16">
         <v>0.01047120418848168</v>
       </c>
     </row>
@@ -658,12 +578,7 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Kentucky</t>
-        </is>
-      </c>
-      <c r="D17">
+      <c r="C17">
         <v>0.005235602094240838</v>
       </c>
     </row>
@@ -676,12 +591,7 @@
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Montevideo</t>
-        </is>
-      </c>
-      <c r="D18">
+      <c r="C18">
         <v>0.01570680628272251</v>
       </c>
     </row>
@@ -694,12 +604,7 @@
       <c r="B19">
         <v>4</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Muenchen</t>
-        </is>
-      </c>
-      <c r="D19">
+      <c r="C19">
         <v>0.02094240837696335</v>
       </c>
     </row>
@@ -712,12 +617,7 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Muenster</t>
-        </is>
-      </c>
-      <c r="D20">
+      <c r="C20">
         <v>0.005235602094240838</v>
       </c>
     </row>
@@ -730,12 +630,7 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Newport</t>
-        </is>
-      </c>
-      <c r="D21">
+      <c r="C21">
         <v>0.01047120418848168</v>
       </c>
     </row>
@@ -748,12 +643,7 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Orion</t>
-        </is>
-      </c>
-      <c r="D22">
+      <c r="C22">
         <v>0.01047120418848168</v>
       </c>
     </row>
@@ -766,12 +656,7 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Ouakam</t>
-        </is>
-      </c>
-      <c r="D23">
+      <c r="C23">
         <v>0.01047120418848168</v>
       </c>
     </row>
@@ -784,12 +669,7 @@
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Reading</t>
-        </is>
-      </c>
-      <c r="D24">
+      <c r="C24">
         <v>0.05235602094240838</v>
       </c>
     </row>
@@ -802,12 +682,7 @@
       <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Schwarzengrund</t>
-        </is>
-      </c>
-      <c r="D25">
+      <c r="C25">
         <v>0.08376963350785341</v>
       </c>
     </row>
@@ -820,12 +695,7 @@
       <c r="B26">
         <v>10</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Senftenberg</t>
-        </is>
-      </c>
-      <c r="D26">
+      <c r="C26">
         <v>0.05235602094240838</v>
       </c>
     </row>
@@ -838,12 +708,7 @@
       <c r="B27">
         <v>7</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Typhimurium</t>
-        </is>
-      </c>
-      <c r="D27">
+      <c r="C27">
         <v>0.03664921465968586</v>
       </c>
     </row>
@@ -856,12 +721,7 @@
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Typhimurium - Possible Vaccine Strain</t>
-        </is>
-      </c>
-      <c r="D28">
+      <c r="C28">
         <v>0.02617801047120419</v>
       </c>
     </row>
@@ -874,12 +734,7 @@
       <c r="B29">
         <v>9</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="D29">
+      <c r="C29">
         <v>0.04712041884816754</v>
       </c>
     </row>
@@ -892,12 +747,7 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Worthington</t>
-        </is>
-      </c>
-      <c r="D30">
+      <c r="C30">
         <v>0.01570680628272251</v>
       </c>
     </row>
